--- a/1-策略开发/1-开发中的策略/CTA策略开发清单.xlsx
+++ b/1-策略开发/1-开发中的策略/CTA策略开发清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10680"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
     <t>oscillator_drive</t>
   </si>
   <si>
+    <t>回测中</t>
+  </si>
+  <si>
     <t>rsi_momentum</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>super_turtle</t>
-  </si>
-  <si>
-    <t>回测中</t>
   </si>
   <si>
     <t>turtle_signal</t>
@@ -126,8 +126,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -147,6 +147,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,12 +162,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -175,64 +197,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,44 +261,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,7 +299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,181 +311,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +504,69 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,45 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -587,30 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -771,10 +765,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,7 +895,7 @@
         <sz val="16"/>
         <color theme="1"/>
       </font>
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -930,7 +924,7 @@
         <sz val="16"/>
         <color theme="1"/>
       </font>
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -977,7 +971,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1263,15 +1257,15 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.12389380530973" customWidth="1"/>
-    <col min="2" max="2" width="24.4159292035398" customWidth="1"/>
-    <col min="3" max="3" width="18.2477876106195" customWidth="1"/>
-    <col min="4" max="4" width="17.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="24.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:4">
@@ -1295,8 +1289,8 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="20.25" spans="1:4">
       <c r="A3" s="1">
@@ -1305,8 +1299,8 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" ht="20.25" spans="1:4">
       <c r="A4" s="1">
@@ -1315,8 +1309,8 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" ht="20.25" spans="1:4">
       <c r="A5" s="1">
@@ -1325,8 +1319,8 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="20.25" spans="1:4">
       <c r="A6" s="1">
@@ -1335,8 +1329,8 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="20.25" spans="1:4">
       <c r="A7" s="1">
@@ -1345,8 +1339,8 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" ht="20.25" spans="1:4">
       <c r="A8" s="1">
@@ -1355,8 +1349,8 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" ht="20.25" spans="1:4">
       <c r="A9" s="1">
@@ -1365,8 +1359,8 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" ht="20.25" spans="1:4">
       <c r="A10" s="1">
@@ -1375,8 +1369,8 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" ht="20.25" spans="1:4">
       <c r="A11" s="1">
@@ -1385,8 +1379,8 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" ht="20.25" spans="1:4">
       <c r="A12" s="1">
@@ -1395,8 +1389,8 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" ht="20.25" spans="1:4">
       <c r="A13" s="1">
@@ -1405,8 +1399,8 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" ht="20.25" spans="1:4">
       <c r="A14" s="1">
@@ -1415,8 +1409,8 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" ht="20.25" spans="1:4">
       <c r="A15" s="1">
@@ -1425,10 +1419,10 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1439,50 +1433,50 @@
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" ht="20.25" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" ht="20.25" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" ht="20.25" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" ht="20.25" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" ht="20.25" spans="1:4">
       <c r="A21" s="1">
@@ -1491,8 +1485,8 @@
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" ht="20.25" spans="1:4">
       <c r="A22" s="1">
@@ -1501,8 +1495,8 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" ht="20.25" spans="1:4">
       <c r="A23" s="1">
@@ -1511,8 +1505,8 @@
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" ht="20.25" spans="1:4">
       <c r="A24" s="1">
@@ -1521,8 +1515,8 @@
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" ht="20.25" spans="1:4">
       <c r="A25" s="1">
@@ -1531,8 +1525,8 @@
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" ht="20.25" spans="1:4">
       <c r="A26" s="1">
@@ -1541,8 +1535,8 @@
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" ht="20.25" spans="1:4">
       <c r="A27" s="1">
@@ -1551,8 +1545,8 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
